--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_30_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_30_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12824.17852561748</v>
+        <v>2552011.526597877</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12824.17852561748</v>
+        <v>2552011.526597877</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28658.38207050322</v>
+        <v>1721505.345327265</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28658.38207050322</v>
+        <v>1721505.345327265</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>961671853.702127</v>
+        <v>41327002.7342319</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11000.05477354028</v>
+        <v>1262478.740979298</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19225.91281393138</v>
+        <v>2049320.231587905</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27451.77085432246</v>
+        <v>2836161.722196514</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>36290.53295233291</v>
+        <v>3547764.922170634</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>45271.08782626963</v>
+        <v>4287584.884554086</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53733.92391346311</v>
+        <v>5102184.130312516</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>62054.88237395928</v>
+        <v>5889047.288418885</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70375.1763923376</v>
+        <v>6675778.222543798</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>79218.81309475745</v>
+        <v>7386268.550455982</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>88200.01571491087</v>
+        <v>8126116.310018404</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>97179.86138375367</v>
+        <v>8865694.036270013</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>106159.7426257466</v>
+        <v>9605271.762521628</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>115139.6238677396</v>
+        <v>10344849.48877324</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>124119.4695365824</v>
+        <v>11084427.21502486</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>133105.6516935477</v>
+        <v>11823284.0883916</v>
       </c>
     </row>
   </sheetData>
